--- a/SES/SES/ExportTemplate/ChuongTrinhKhuyenMai.xlsx
+++ b/SES/SES/ExportTemplate/ChuongTrinhKhuyenMai.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Active</t>
   </si>
@@ -66,28 +66,82 @@
     <t>RegBySalesmanName</t>
   </si>
   <si>
+    <t>Mã ĐVVC</t>
+  </si>
+  <si>
+    <t>Từ ngày</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đến ngày </t>
+  </si>
+  <si>
+    <t>Người tạo</t>
+  </si>
+  <si>
+    <t>Ngày tạo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghi chú </t>
+  </si>
+  <si>
     <t>Trạng thái</t>
   </si>
   <si>
-    <t>Loại chương trình khuyến mãi</t>
-  </si>
-  <si>
-    <t>Tên chương trình khuyến mãi</t>
-  </si>
-  <si>
-    <t>Mã chương trình khuyến mãi</t>
-  </si>
-  <si>
-    <t>Từ ngày</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đến ngày </t>
-  </si>
-  <si>
-    <t>Ghí chú</t>
-  </si>
-  <si>
-    <t>Người tạo</t>
+    <t>Tên ĐVVC</t>
+  </si>
+  <si>
+    <t>Mã Nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Tên Nhà cung cấp</t>
+  </si>
+  <si>
+    <t>Mã ĐBVC</t>
+  </si>
+  <si>
+    <t>Tên ĐBVC</t>
+  </si>
+  <si>
+    <t>Số tiền ĐH Min NCC</t>
+  </si>
+  <si>
+    <t>Số tiền ĐH NCC</t>
+  </si>
+  <si>
+    <t>Mã CTKM</t>
+  </si>
+  <si>
+    <t>Tên CTKM</t>
+  </si>
+  <si>
+    <t>Mức giá ĐH Min Deca</t>
+  </si>
+  <si>
+    <t>Mức giá ĐH Max Deca</t>
+  </si>
+  <si>
+    <t>Mức hỗ trợ Deca($)</t>
+  </si>
+  <si>
+    <t>Mức hỗ trợ NCC ($)</t>
+  </si>
+  <si>
+    <t>SLĐH Min Deca</t>
+  </si>
+  <si>
+    <t>SLĐH Max Deca</t>
+  </si>
+  <si>
+    <t>Mức hỗ trợ Deca(SL)</t>
+  </si>
+  <si>
+    <t>SLĐH Min NCC</t>
+  </si>
+  <si>
+    <t>Mức hỗ trợ NCC (SL)</t>
+  </si>
+  <si>
+    <t>SLĐH Max NCC</t>
   </si>
 </sst>
 </file>
@@ -187,7 +241,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -208,6 +262,14 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -530,73 +592,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="8" customWidth="1"/>
-    <col min="3" max="5" width="13.7109375" style="9" customWidth="1"/>
-    <col min="6" max="7" width="13.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="20" style="9" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="9" customWidth="1"/>
+    <col min="6" max="6" width="33.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="29.7109375" style="9" customWidth="1"/>
+    <col min="9" max="10" width="21.5703125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="11" customWidth="1"/>
+    <col min="12" max="13" width="13.7109375" style="13" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="11" customWidth="1"/>
+    <col min="15" max="16" width="13.7109375" style="13" customWidth="1"/>
+    <col min="17" max="20" width="13.7109375" style="11" customWidth="1"/>
+    <col min="21" max="26" width="13.7109375" style="8" customWidth="1"/>
+    <col min="27" max="27" width="13.7109375" style="5" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I2" s="3"/>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA2" s="3"/>
     </row>
   </sheetData>
   <dataConsolidate/>
-  <conditionalFormatting sqref="I3:I1048576 I1">
+  <conditionalFormatting sqref="AA3:AA1048576 AA1">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(I1))&gt;0</formula>
+      <formula>LEN(TRIM(AA1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H1048576">
-      <formula1>Active</formula1>
-    </dataValidation>
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D1048576">
       <formula1>LoaiKhachHang</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:J1048576">
       <formula1>Kenh</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:Z1048576">
       <formula1>NhanVienDangKy</formula1>
     </dataValidation>
   </dataValidations>
